--- a/Copie de 6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 20231.xlsx
+++ b/Copie de 6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 20231.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mimou\Desktop\portfolio\.fr-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{21EAF83C-1E1C-498B-9178-F0EAE0B3CBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947A87BE-9C6D-436C-9A0B-88A8F4B5D5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Mise en place d'une infrastructure réseau virtuelle (Cisco Packet Tracer)</t>
   </si>
   <si>
-    <t xml:space="preserve">Gestion d'un stockage externe redondant avec </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mettre en place une formation de cyberdéfense </t>
   </si>
   <si>
@@ -207,6 +204,16 @@
   <si>
     <t>Prepartion des commandes des nouveaux postes, mobiles et accessoires .</t>
   </si>
+  <si>
+    <t>Support et Formation: assistance, conseil et formation aux utilisateurs sur les outils bureautiques et téléphoniques.</t>
+  </si>
+  <si>
+    <t>Gestion des incidents: Prendre en charge les incidents techniques par téléphone, e-mail et en personne.
+Utiliser un système de tickets pour gérer et résoudre les incidents.</t>
+  </si>
+  <si>
+    <t>Rédigé des guides et formé les utilisateurs.</t>
+  </si>
 </sst>
 </file>
 
@@ -215,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -304,8 +311,22 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +343,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -696,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -776,27 +803,10 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -810,9 +820,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,8 +1075,8 @@
   </sheetPr>
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1052,56 +1088,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="42" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="43"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="39"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1113,22 +1149,22 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="42" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1151,8 +1187,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="324.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1173,16 +1209,16 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -1269,22 +1305,18 @@
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="15">
-        <v>45412</v>
-      </c>
-      <c r="C15" s="13"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="15">
         <v>45417</v>
@@ -1298,7 +1330,7 @@
     </row>
     <row r="17" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="15">
         <v>45365</v>
@@ -1312,7 +1344,7 @@
     </row>
     <row r="18" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="15">
         <v>45353</v>
@@ -1325,28 +1357,31 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>35</v>
+      <c r="A19" s="45" t="s">
+        <v>34</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B20" s="17"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="16"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
       <c r="B21" s="17"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1355,25 +1390,29 @@
       <c r="G21" s="12"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+    <row r="22" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="B22" s="17"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="16"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
+      <c r="A23" s="48" t="s">
+        <v>43</v>
+      </c>
       <c r="B23" s="17"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="16"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
@@ -1406,20 +1445,20 @@
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
-        <v>36</v>
+      <c r="A27" s="45" t="s">
+        <v>35</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="17"/>
       <c r="C28" s="25"/>
@@ -1430,8 +1469,8 @@
       <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>38</v>
+      <c r="A29" s="48" t="s">
+        <v>37</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="12"/>
@@ -1442,8 +1481,8 @@
       <c r="H29" s="26"/>
     </row>
     <row r="30" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>37</v>
+      <c r="A30" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="B30" s="17"/>
       <c r="D30" s="25"/>
@@ -1453,8 +1492,8 @@
       <c r="H30" s="26"/>
     </row>
     <row r="31" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>40</v>
+      <c r="A31" s="48" t="s">
+        <v>39</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="25"/>
@@ -1466,7 +1505,7 @@
     </row>
     <row r="32" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="25"/>
@@ -11157,6 +11196,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A1:F1"/>
@@ -11164,25 +11208,23 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11336,26 +11378,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47191A66-F6DA-4717-91CC-1627FDB6363A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E586E7D-8304-4F4E-A777-73CC5A6711EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="7fddec44-25b9-46a6-ab26-5eb336d2b292"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11379,9 +11410,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E586E7D-8304-4F4E-A777-73CC5A6711EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47191A66-F6DA-4717-91CC-1627FDB6363A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7fddec44-25b9-46a6-ab26-5eb336d2b292"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>